--- a/ShoppersDenV3/bin/Debug/net8.0/ProductsApr2025.xlsx
+++ b/ShoppersDenV3/bin/Debug/net8.0/ProductsApr2025.xlsx
@@ -12,87 +12,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">Car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantastic</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+  <si>
+    <t xml:space="preserve">Hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nagasaki Lander is the trademarked name of several series of Nagasaki sport bikes, that started with the 1984 ABC800J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShoppersDenV3.Models.Money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andy shoes are designed to keeping in mind durability as well as trends, the most stylish range of shoes &amp; sandals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The beautiful range of Apple Naturalé that has an exciting mix of natural ingredients. With the Goodness of 100% Natural Ingredients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rustic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonite web goalkeeper gloves are ergonomically designed to give easy fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The slim &amp; simple Maple Gaming Keyboard from Dev Byte comes with a sleek body and 7- Color RGB LED Back-lighting for smart functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergonomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New range of formal shirts are designed keeping you in mind. With fits and styling that will make you stand apart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Apollotech B340 is an affordable wireless mouse with reliable connectivity, 12 months battery life and modern design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licensed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handcrafted</t>
   </si>
   <si>
     <t xml:space="preserve">Soft</t>
   </si>
   <si>
-    <t xml:space="preserve">The beautiful range of Apple Naturalé that has an exciting mix of natural ingredients. With the Goodness of 100% Natural Ingredients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShoppersDenV3.Models.Money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chips</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intelligent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fresh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Nagasaki Lander is the trademarked name of several series of Nagasaki sport bikes, that started with the 1984 ABC800J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unbranded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handcrafted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frozen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boston's most advanced compression wear technology increases muscle oxygenation, stabilizes active muscles</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gloves</t>
   </si>
   <si>
-    <t xml:space="preserve">Awesome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concrete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andy shoes are designed to keeping in mind durability as well as trends, the most stylish range of shoes &amp; sandals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licensed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Apollotech B340 is an affordable wireless mouse with reliable connectivity, 12 months battery life and modern design</t>
+    <t xml:space="preserve">Incredible</t>
   </si>
 </sst>
 </file>
@@ -144,7 +162,7 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>69452</v>
+        <v>61996</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -159,7 +177,7 @@
         <v>3</v>
       </c>
       <c r="F1">
-        <v>1619</v>
+        <v>8944</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -167,7 +185,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>33338</v>
+        <v>48488</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -182,7 +200,7 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>1177</v>
+        <v>5308</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -190,22 +208,22 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>27621</v>
+        <v>41237</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>4957</v>
+        <v>2704</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -213,22 +231,22 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>64678</v>
+        <v>14402</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>5562</v>
+        <v>9306</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -236,22 +254,22 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>30869</v>
+        <v>79240</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>6055</v>
+        <v>2564</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -259,22 +277,22 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>29265</v>
+        <v>66503</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>9077</v>
+        <v>9160</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -282,22 +300,22 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>30191</v>
+        <v>24407</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>6592</v>
+        <v>9932</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
@@ -305,22 +323,22 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>57298</v>
+        <v>34477</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>7212</v>
+        <v>8851</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
@@ -328,24 +346,47 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>54699</v>
+        <v>83787</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>882</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>10112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F9">
-        <v>169</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F10">
+        <v>9620</v>
+      </c>
+      <c r="G10" t="s">
         <v>4</v>
       </c>
     </row>

--- a/ShoppersDenV3/bin/Debug/net8.0/ProductsApr2025.xlsx
+++ b/ShoppersDenV3/bin/Debug/net8.0/ProductsApr2025.xlsx
@@ -12,81 +12,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">Soap</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+  <si>
+    <t xml:space="preserve">Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rustic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The beautiful range of Apple Naturalé that has an exciting mix of natural ingredients. With the Goodness of 100% Natural Ingredients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licensed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergonomic executive chair upholstered in bonded black leather and PVC padded seat and back for all-day comfort and support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergonomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Nagasaki Lander is the trademarked name of several series of Nagasaki sport bikes, that started with the 1984 ABC800J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The slim &amp; simple Maple Gaming Keyboard from Dev Byte comes with a sleek body and 7- Color RGB LED Back-lighting for smart functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The automobile layout consists of a front-engine design, with transaxle-type transmissions mounted at the rear of the engine and four wheel drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonite web goalkeeper gloves are ergonomically designed to give easy fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyboard</t>
   </si>
   <si>
     <t xml:space="preserve">Practical</t>
   </si>
   <si>
-    <t xml:space="preserve">Cotton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The beautiful range of Apple Naturalé that has an exciting mix of natural ingredients. With the Goodness of 100% Natural Ingredients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantastic</t>
-  </si>
-  <si>
     <t xml:space="preserve">Frozen</t>
   </si>
   <si>
-    <t xml:space="preserve">Carbonite web goalkeeper gloves are ergonomically designed to give easy fit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sausages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergonomic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Apollotech B340 is an affordable wireless mouse with reliable connectivity, 12 months battery life and modern design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gorgeous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergonomic executive chair upholstered in bonded black leather and PVC padded seat and back for all-day comfort and support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8680</t>
+    <t xml:space="preserve">New ABC 13 9370, 13.3, 5th Gen CoreA5-8250U, 8GB RAM, 256GB SSD, power UHD Graphics, OS 10 Home, OS Office A &amp; J 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2194</t>
   </si>
 </sst>
 </file>
@@ -138,7 +180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>70134</v>
+        <v>61990</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -153,7 +195,7 @@
         <v>3</v>
       </c>
       <c r="F1">
-        <v>4548</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -164,7 +206,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>21329</v>
+        <v>74384</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -179,7 +221,7 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>2320</v>
+        <v>1279</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -190,7 +232,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>62912</v>
+        <v>39104</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -205,7 +247,7 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>7008</v>
+        <v>1649</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -216,54 +258,106 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>45255</v>
+        <v>94813</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>8517</v>
+        <v>5093</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>98288</v>
+        <v>36356</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>6815</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>65085</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>9251</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>8896</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>91294</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>9624</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
